--- a/요구사항 정의서.xlsx
+++ b/요구사항 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY_HAMIN\Desktop\OTB_algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DD8E03-4792-456D-AC5F-C05A5ACD767B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371C2DA0-1A85-4A0E-9C60-81182F2FA194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="3345" windowWidth="21600" windowHeight="9765" xr2:uid="{BBA14BE1-6D4D-466C-8617-76E7FD3FB527}"/>
   </bookViews>
@@ -280,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,8 +293,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -339,13 +345,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,6 +400,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -379,26 +415,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD4DDE1-53A5-444D-A806-6D313581E4D5}">
   <dimension ref="B1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -735,22 +774,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -772,7 +811,7 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="15" t="s">
         <v>0</v>
       </c>
@@ -786,13 +825,13 @@
         <v>17</v>
       </c>
       <c r="H3" s="15"/>
-      <c r="I3" s="13"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="14" t="s">
         <v>0</v>
       </c>
@@ -812,7 +851,7 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
@@ -832,7 +871,7 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
@@ -852,27 +891,27 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
@@ -888,13 +927,13 @@
       <c r="H8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="14" t="s">
         <v>20</v>
       </c>
@@ -916,7 +955,7 @@
       <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
         <v>20</v>
       </c>
@@ -936,7 +975,7 @@
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="14" t="s">
         <v>20</v>
       </c>
@@ -956,7 +995,7 @@
       <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="14" t="s">
         <v>20</v>
       </c>
@@ -976,7 +1015,7 @@
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="14" t="s">
         <v>20</v>
       </c>
@@ -996,7 +1035,7 @@
       <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="15" t="s">
         <v>20</v>
       </c>
@@ -1017,19 +1056,19 @@
         <v>14</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
@@ -1037,19 +1076,19 @@
         <v>15</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
@@ -1057,19 +1096,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
@@ -1077,8 +1116,8 @@
         <v>17</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1087,8 +1126,8 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1097,8 +1136,8 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1107,8 +1146,8 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1117,8 +1156,8 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1127,8 +1166,8 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1137,8 +1176,8 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1147,8 +1186,8 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1157,8 +1196,8 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1167,8 +1206,8 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1177,8 +1216,8 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1187,8 +1226,8 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1197,8 +1236,8 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1207,8 +1246,8 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1217,8 +1256,8 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1227,8 +1266,8 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1237,8 +1276,8 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1248,7 +1287,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -1258,7 +1297,7 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -1268,7 +1307,7 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="16"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -1278,7 +1317,7 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="16"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -1288,7 +1327,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="16"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -1298,7 +1337,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="16"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -1308,7 +1347,7 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="16"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -1325,6 +1364,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100038DEDF8F8E7F34D8EEE7B42B4B82B5B" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="6d25eeb376aa8c8832c2cc6ab3b1e69d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d451bc94-9e89-4cbc-90a2-7f7df2de59c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a5237cd9ec00e41bc4f3e891ef70a2ef" ns3:_="">
     <xsd:import namespace="d451bc94-9e89-4cbc-90a2-7f7df2de59c3"/>
@@ -1456,22 +1510,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB27584D-9879-4048-B227-7F2221765FF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="d451bc94-9e89-4cbc-90a2-7f7df2de59c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9739ADD-38E4-4F5C-AD2A-9B8D5C5CEE88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C46425F-8505-4D70-B002-03AED3461F3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1487,28 +1550,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9739ADD-38E4-4F5C-AD2A-9B8D5C5CEE88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB27584D-9879-4048-B227-7F2221765FF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="d451bc94-9e89-4cbc-90a2-7f7df2de59c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/요구사항 정의서.xlsx
+++ b/요구사항 정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY_HAMIN\Desktop\OTB_algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371C2DA0-1A85-4A0E-9C60-81182F2FA194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D0491-C460-42BA-8736-1DDD89401D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3345" windowWidth="21600" windowHeight="9765" xr2:uid="{BBA14BE1-6D4D-466C-8617-76E7FD3FB527}"/>
+    <workbookView xWindow="4605" yWindow="3330" windowWidth="21600" windowHeight="9765" xr2:uid="{BBA14BE1-6D4D-466C-8617-76E7FD3FB527}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,37 +406,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,7 +756,7 @@
   <dimension ref="B1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -774,157 +774,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="10"/>
       <c r="I2"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="10"/>
       <c r="I4"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="10"/>
       <c r="I5"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="10"/>
       <c r="I6"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="20"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="11" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="8"/>
@@ -933,20 +933,20 @@
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="10" t="s">
         <v>42</v>
       </c>
       <c r="I9"/>
@@ -955,100 +955,100 @@
       <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="10"/>
       <c r="I10"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="10"/>
       <c r="I11"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="10"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="10"/>
       <c r="I13"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="11"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -1056,19 +1056,19 @@
         <v>14</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
@@ -1076,19 +1076,19 @@
         <v>15</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
@@ -1096,19 +1096,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
@@ -1364,21 +1364,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100038DEDF8F8E7F34D8EEE7B42B4B82B5B" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="6d25eeb376aa8c8832c2cc6ab3b1e69d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d451bc94-9e89-4cbc-90a2-7f7df2de59c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a5237cd9ec00e41bc4f3e891ef70a2ef" ns3:_="">
     <xsd:import namespace="d451bc94-9e89-4cbc-90a2-7f7df2de59c3"/>
@@ -1510,31 +1495,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB27584D-9879-4048-B227-7F2221765FF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="d451bc94-9e89-4cbc-90a2-7f7df2de59c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9739ADD-38E4-4F5C-AD2A-9B8D5C5CEE88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C46425F-8505-4D70-B002-03AED3461F3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1550,4 +1526,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9739ADD-38E4-4F5C-AD2A-9B8D5C5CEE88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB27584D-9879-4048-B227-7F2221765FF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="d451bc94-9e89-4cbc-90a2-7f7df2de59c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>